--- a/data_to_load/teammembers.xlsx
+++ b/data_to_load/teammembers.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krpop\Documents\KenP\Applications-Python\demand_capacity_app\data_to_load\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krpop\Documents\KenP\Applications-Python\demand-capacity2\data_to_load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751A82E3-5D8F-4AEB-A697-AA75F4BBE437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F81A05-0D7B-452F-B4DD-C21249D5F40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" xr2:uid="{AB67AD10-3DEB-4CC1-9CD2-9CE7B80EC845}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{AB67AD10-3DEB-4CC1-9CD2-9CE7B80EC845}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="6" r:id="rId1"/>
     <sheet name="Darrell Team" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">sheet1!$C$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">sheet1!$C$1:$C$50</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="97">
   <si>
     <t>Cliff Seow</t>
   </si>
@@ -318,9 +318,6 @@
     <t>level</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
     <t>Gaurav Vijaywargia</t>
   </si>
   <si>
@@ -330,7 +327,10 @@
     <t>Renuka Dubas</t>
   </si>
   <si>
-    <t>skill_level</t>
+    <t>GG20</t>
+  </si>
+  <si>
+    <t>GG19</t>
   </si>
 </sst>
 </file>
@@ -426,10 +426,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,13 +745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EAA6AF-6E91-4C60-9BDD-4102C5862941}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -766,7 +762,7 @@
     <col min="4" max="16384" width="8.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>89</v>
       </c>
@@ -776,33 +772,30 @@
       <c r="C1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -813,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -824,7 +817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -835,7 +828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -846,7 +839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -857,7 +850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -868,7 +861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -879,18 +872,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -901,7 +894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -912,7 +905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -923,7 +916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -934,7 +927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -994,7 +987,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1</v>
@@ -1013,119 +1006,131 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
@@ -1133,43 +1138,43 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1177,103 +1182,109 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>92</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
@@ -1281,18 +1292,18 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>30</v>
@@ -1303,10 +1314,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -1314,30 +1325,41 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C49" xr:uid="{D9EAA6AF-6E91-4C60-9BDD-4102C5862941}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E53">
-    <sortCondition ref="A2:A53"/>
+  <autoFilter ref="C1:C50" xr:uid="{D9EAA6AF-6E91-4C60-9BDD-4102C5862941}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C54">
+    <sortCondition ref="A2:A54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1538,6 +1560,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086A72C854002854794493D02C0B42ECC" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7c05f9d745027607f7cc13caf7a7fc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95b0fa68-fb80-4536-975a-110ff333bd9a" xmlns:ns3="3f5717c7-db0b-4217-ba9d-d939c34275cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71bac019da2bb0526f6d7cdd3dc708b4" ns2:_="" ns3:_="">
     <xsd:import namespace="95b0fa68-fb80-4536-975a-110ff333bd9a"/>
@@ -1792,7 +1823,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="3f5717c7-db0b-4217-ba9d-d939c34275cb" xsi:nil="true"/>
@@ -1803,16 +1834,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D551748C-E602-4AD2-AEB2-C933215C0BFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5369BF68-05DD-4C76-9062-179DEE4E2A9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1831,7 +1861,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DADFDD51-E98C-4A2F-9DC1-81CEE9EC7660}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1846,12 +1876,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D551748C-E602-4AD2-AEB2-C933215C0BFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>